--- a/plan_rabot/media/documents/exel/MSK.xlsx
+++ b/plan_rabot/media/documents/exel/MSK.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEX\PycharmProjects\django_cex\plan_rabot\media\documents\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAS\PycharmProjects\django_cex\plan_rabot\media\documents\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10E689-5D55-4D04-9553-78197808F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422AF10-1A03-4DEB-8836-B03A958A758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -637,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,22 +668,169 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,163 +840,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,7 +1201,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:J25"/>
+      <selection activeCell="C24" sqref="C24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1273,12 +1279,12 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="2"/>
@@ -1296,13 +1302,13 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1313,13 +1319,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -1327,23 +1333,23 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1351,13 +1357,13 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
@@ -1388,128 +1394,128 @@
       <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="19" t="s">
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="24" t="s">
+      <c r="L9" s="69"/>
+      <c r="M9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72"/>
     </row>
     <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="68" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="40"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47"/>
     </row>
     <row r="11" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="41"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="48"/>
     </row>
     <row r="12" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="42" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="59"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="66"/>
     </row>
     <row r="13" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="21" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="41"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="48"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -1518,27 +1524,27 @@
     </row>
     <row r="14" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="42" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="44"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="51"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -1547,39 +1553,39 @@
     </row>
     <row r="15" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="69" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="60" t="s">
+      <c r="L15" s="31"/>
+      <c r="M15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="60" t="s">
+      <c r="N15" s="27"/>
+      <c r="O15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="60" t="s">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="61"/>
-      <c r="S15" s="68" t="s">
+      <c r="R15" s="27"/>
+      <c r="S15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="71"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1588,29 +1594,29 @@
     </row>
     <row r="16" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="72"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="20"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -1620,266 +1626,266 @@
     <row r="17" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="15"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="14"/>
     </row>
     <row r="18" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="17"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
     </row>
     <row r="19" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="14"/>
     </row>
     <row r="20" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="17"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="16"/>
     </row>
     <row r="21" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="15"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="14"/>
     </row>
     <row r="22" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="17"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="15"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="14"/>
     </row>
     <row r="24" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="17"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="15"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="14"/>
     </row>
     <row r="26" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="17"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
     </row>
     <row r="28" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="4"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
     </row>
     <row r="29" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -2058,43 +2064,32 @@
       <c r="T36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="Q23:R24"/>
-    <mergeCell ref="O23:P24"/>
-    <mergeCell ref="S25:T26"/>
-    <mergeCell ref="Q25:R26"/>
-    <mergeCell ref="O25:P26"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="S15:T16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="O19:P20"/>
-    <mergeCell ref="C17:J17"/>
+  <mergeCells count="78">
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="F6:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N5:P6"/>
+    <mergeCell ref="R4:T6"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:J16"/>
@@ -2110,25 +2105,44 @@
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="O15:P16"/>
-    <mergeCell ref="F6:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N5:P6"/>
-    <mergeCell ref="R4:T6"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C17:J17"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="M25:N26"/>
     <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="S15:T16"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="O19:P20"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="O23:P24"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="O25:P26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2137,15 +2151,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Carlsberg Record All" ma:contentTypeID="0x010100B023862BB9079A4C99C41439D0383996004C1CFF8BEC4B4148A2DE97E3391EF18F" ma:contentTypeVersion="6" ma:contentTypeDescription="Carlsberg Record All for RMS" ma:contentTypeScope="" ma:versionID="aa4c345e5b3bd241e72d2342425ffeaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ceee5eb5-87c2-4fae-9295-091b6434e7e7" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="cb97909d-e011-4be9-b4e8-c318c9c3dd06" xmlns:ns5="0192f78f-d5e3-48c4-b8d9-b182bb3bc873" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e710a6df5d682365b98041b8a9c762f2" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2355,6 +2360,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2376,14 +2390,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862938F7-3F96-41EA-88E8-904B4180BE5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA9F7D06-A0E5-4E0B-B9F5-FEE8FB29CCD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2405,6 +2411,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862938F7-3F96-41EA-88E8-904B4180BE5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B6B9FA-BA81-40E4-B11A-FB77937C640A}">
   <ds:schemaRefs>

--- a/plan_rabot/media/documents/exel/MSK.xlsx
+++ b/plan_rabot/media/documents/exel/MSK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAS\PycharmProjects\django_cex\plan_rabot\media\documents\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422AF10-1A03-4DEB-8836-B03A958A758D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86630AC-82FF-44AB-A389-64A54F7005CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>№ ЕАМ</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>На склад</t>
-  </si>
-  <si>
-    <t>Отметка ОТК</t>
   </si>
   <si>
     <t>Размеры</t>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>№  зак.</t>
-  </si>
-  <si>
-    <t>Ответственный</t>
   </si>
   <si>
     <t>Заготовка, мм</t>
@@ -144,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -633,16 +627,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -671,6 +671,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,23 +695,140 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,17 +839,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,134 +848,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,7 +1222,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:J24"/>
+      <selection activeCell="R3" sqref="R3:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1222,874 +1243,882 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="19" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="75"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="77"/>
+    </row>
+    <row r="4" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="80"/>
+    </row>
+    <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="80"/>
+    </row>
+    <row r="6" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="37"/>
+    </row>
+    <row r="7" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="40"/>
+    </row>
+    <row r="12" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58"/>
+    </row>
+    <row r="13" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
-        <v>3</v>
+      <c r="L15" s="70"/>
+      <c r="M15" s="59" t="s">
+        <v>13</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="7" t="s">
-        <v>4</v>
+      <c r="N15" s="60"/>
+      <c r="O15" s="59" t="s">
+        <v>14</v>
       </c>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-    </row>
-    <row r="5" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-    </row>
-    <row r="6" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="1" t="s">
+      <c r="P15" s="60"/>
+      <c r="Q15" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="60"/>
+      <c r="S15" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="71"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-    </row>
-    <row r="7" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="72"/>
-    </row>
-    <row r="10" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="47"/>
-    </row>
-    <row r="11" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="48"/>
-    </row>
-    <row r="12" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="66"/>
-    </row>
-    <row r="13" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="18"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
     </row>
     <row r="17" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="17"/>
     </row>
     <row r="18" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="16"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
     </row>
     <row r="19" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="14"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="17"/>
     </row>
     <row r="20" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="16"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
     </row>
     <row r="21" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="17"/>
     </row>
     <row r="22" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="16"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
     </row>
     <row r="23" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="14"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="17"/>
     </row>
     <row r="24" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="16"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="14"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17"/>
     </row>
     <row r="26" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="16"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
     </row>
     <row r="27" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="Q27:R28"/>
-    <mergeCell ref="S27:T28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="M23:N24"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="F6:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="N3:P4"/>
-    <mergeCell ref="N5:P6"/>
-    <mergeCell ref="R4:T6"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
+  <mergeCells count="76">
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="Q23:R24"/>
+    <mergeCell ref="O23:P24"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="Q15:R16"/>
+    <mergeCell ref="O17:P18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="O19:P20"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C21:J21"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:J16"/>
@@ -2105,44 +2134,30 @@
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="O15:P16"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
     <mergeCell ref="S15:T16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="Q15:R16"/>
-    <mergeCell ref="O17:P18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="O19:P20"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="Q23:R24"/>
-    <mergeCell ref="O23:P24"/>
-    <mergeCell ref="S25:T26"/>
-    <mergeCell ref="Q25:R26"/>
-    <mergeCell ref="O25:P26"/>
+    <mergeCell ref="F6:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="R3:T6"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="M23:N24"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="S27:T28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="O27:P28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2151,6 +2166,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Carlsberg Record All" ma:contentTypeID="0x010100B023862BB9079A4C99C41439D0383996004C1CFF8BEC4B4148A2DE97E3391EF18F" ma:contentTypeVersion="6" ma:contentTypeDescription="Carlsberg Record All for RMS" ma:contentTypeScope="" ma:versionID="aa4c345e5b3bd241e72d2342425ffeaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="ceee5eb5-87c2-4fae-9295-091b6434e7e7" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns4="cb97909d-e011-4be9-b4e8-c318c9c3dd06" xmlns:ns5="0192f78f-d5e3-48c4-b8d9-b182bb3bc873" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e710a6df5d682365b98041b8a9c762f2" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2360,15 +2384,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2390,6 +2405,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862938F7-3F96-41EA-88E8-904B4180BE5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA9F7D06-A0E5-4E0B-B9F5-FEE8FB29CCD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2411,14 +2434,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862938F7-3F96-41EA-88E8-904B4180BE5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B6B9FA-BA81-40E4-B11A-FB77937C640A}">
   <ds:schemaRefs>
